--- a/Bug_report_structure.xlsx
+++ b/Bug_report_structure.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baraboi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Course_QA\it\group_22\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286EE91D-7A55-4B81-8D9D-D42F10F95D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bug report" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Veronika</author>
     <author>Veronika Baraboi</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -89,45 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Veronika:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-• Обнаружен (submitted) — начальное состояние отчёта (иногда называется «Новый» (new)), в котором он находится сразу после создания. Некоторые
-средства также позволяют сначала создавать черновик (draft) и лишь потом публиковать отчёт.
-• Назначен (assigned) — в это состояние отчёт переходит с момента, когда ктото из проектной команды назначается ответственным за исправление дефекта. Назначение ответственного производится или решением лидера команды разработки, или коллегиально, или по добровольному принципу, или иным принятым в команде способом или выполняется автоматически на основе определённых правил.
-• Исправлен (fixed) — в это состояние отчёт переводит ответственный за исправление дефекта член команды после выполнения соответствующих действий по исправлению.
-• Проверен (verified) — в это состояние отчёт переводит тестировщик, удостоверившийся, что дефект на самом деле был устранён. Как правило, такую
-проверку выполняет тестировщик, изначально написавший отчёт о дефекте.
-• Закрыт (closed) — состояние отчёта, означающее, что по данному дефекту не планируется никаких дальнейших действий.
-• Открыт заново (reopened) — в это состояние (как правило, из состояния «Исправлен») отчёт переводит тестировщик, удостоверившийся, что дефект попрежнему воспроизводится на билде, в котором он уже должен быть исправлен.
-• Рекомендован к отклонению (to be declined) — в это состояние отчёт о дефекте может быть переведён из множества других состояний с целью вынести на рассмотрение вопрос об отклонении отчёта по той или иной причине. Если рекомендация является обоснованной, отчёт переводится в состояние «Отклонён» (см. следующий пункт).
-• Отклонён (declined) — в это состояние отчёт переводится в случаях, подробно описанных в пункте «Закрыт», если средство управления отчётами о
-дефектах предполагает использование этого состояния вместо состояния «Закрыт» для тех или иных резолюций по отчёту.
-• Отложен (deferred) — в это состояние отчёт переводится в случае, если исправление дефекта в ближайшее время является нерациональным или не
-представляется возможным, однако есть основания полагать, что в обозримом будущем ситуация исправится (выйдет новая версия библиотеки, вернётся из отпуска специалист по некоей технологии, изменятся требования заказчика и т.д.).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="1" shapeId="0">
+    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Summary</t>
   </si>
@@ -171,9 +134,6 @@
   </si>
   <si>
     <t>Priority</t>
-  </si>
-  <si>
-    <t>Status</t>
   </si>
   <si>
     <t>ID</t>
@@ -203,7 +163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -603,37 +563,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -644,45 +604,40 @@
         <v>2</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="K1:K2"/>
+  <mergeCells count="8">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
